--- a/武器调整计划.xlsx
+++ b/武器调整计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\How to be a tactical doll\Github 码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E3EE05-A648-4AD4-AA2C-6C203F2FEA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202D6B2E-1B1F-44E9-9DEE-6AAFF6611120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="552">
   <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2201,6 +2201,18 @@
   </si>
   <si>
     <t>技能模式下姿态精度上调0.05，数据重匹配现实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衔尾蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主模式修正为1.3致死的双枪，副模式改为M4木星炮弹道的导弹，blast4，radius4（有散步）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2300,7 +2312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2457,6 +2469,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2739,9 +2752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F318" sqref="F318:I318"/>
+      <selection pane="bottomLeft" activeCell="J325" sqref="J325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -38045,6 +38058,9 @@
       <c r="I323" s="45"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324" s="60">
+        <v>44605</v>
+      </c>
       <c r="B324" s="43"/>
       <c r="C324" s="44"/>
       <c r="D324" s="44"/>
@@ -38055,14 +38071,24 @@
       <c r="I324" s="45"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B325" s="43"/>
+      <c r="A325" t="s">
+        <v>549</v>
+      </c>
+      <c r="B325" s="43" t="s">
+        <v>550</v>
+      </c>
       <c r="C325" s="44"/>
       <c r="D325" s="44"/>
       <c r="E325" s="44"/>
-      <c r="F325" s="45"/>
+      <c r="F325" s="45" t="s">
+        <v>551</v>
+      </c>
       <c r="G325" s="45"/>
       <c r="H325" s="45"/>
       <c r="I325" s="45"/>
+      <c r="J325" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B326" s="43"/>

--- a/武器调整计划.xlsx
+++ b/武器调整计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\How to be a tactical doll\Github 码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17969DB-176F-48BD-B49A-63FCBDE8971E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36268619-EC28-48E0-AFD5-486BDCE101E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2216,15 +2216,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三模式，主模式为280rpm的半自动blast3，视距2.0，弹容20；一技能为rpm20的半自动blast9，视距3.0，弹容5；二技能为持续3s的激光开火，30发弹容，视距1.5，总blast伤害为1x2x30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（敌方）建筑师（准确的说包括我方）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我方的伤害由3x6改为2x9，敌方的由3x6改为3x9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三模式，主模式为280rpm的半自动blast3，视距2.0，弹容20；一技能为rpm20的半自动blast12，视距3.5，弹容5；二技能为持续3s的激光，30发弹容，视距1.5，blast1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2766,7 +2766,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J328" sqref="J328"/>
+      <selection pane="bottomLeft" activeCell="F327" sqref="F327:I327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -38126,7 +38126,7 @@
       <c r="D327" s="45"/>
       <c r="E327" s="45"/>
       <c r="F327" s="46" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G327" s="46"/>
       <c r="H327" s="46"/>
@@ -38137,7 +38137,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B328" s="44" t="s">
         <v>118</v>
@@ -38146,7 +38146,7 @@
       <c r="D328" s="45"/>
       <c r="E328" s="45"/>
       <c r="F328" s="46" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G328" s="46"/>
       <c r="H328" s="46"/>

--- a/武器调整计划.xlsx
+++ b/武器调整计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\How to be a tactical doll\Github 码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42972AB3-E15C-44FD-A895-2E03A2192CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D14D8EA-34F4-45E2-B891-E5B3EC0E06BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="597">
   <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2386,6 +2386,14 @@
   </si>
   <si>
     <t>技能模式blast1.1→2.1；后坐力增长2→0.4；降低0.3抗致死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙德拉贡M1908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平a致死2.2→2.85，技能致死3.2→4.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2927,7 +2935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J358" sqref="J358"/>
+      <selection pane="bottomLeft" activeCell="F359" sqref="F359:I359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -38871,11 +38879,18 @@
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B359" s="44"/>
+      <c r="A359" t="s">
+        <v>595</v>
+      </c>
+      <c r="B359" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C359" s="45"/>
       <c r="D359" s="45"/>
       <c r="E359" s="45"/>
-      <c r="F359" s="46"/>
+      <c r="F359" s="46" t="s">
+        <v>596</v>
+      </c>
       <c r="G359" s="46"/>
       <c r="H359" s="46"/>
       <c r="I359" s="46"/>

--- a/武器调整计划.xlsx
+++ b/武器调整计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\How to be a tactical doll\Github 码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D14D8EA-34F4-45E2-B891-E5B3EC0E06BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD8A773-EF79-4651-9964-BA99F5581A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="601">
   <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2394,6 +2394,22 @@
   </si>
   <si>
     <t>平a致死2.2→2.85，技能致死3.2→4.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡尔卡诺姐妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为弹匣式装填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榴弹模式改成栓动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2933,9 +2949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD543"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F359" sqref="F359:I359"/>
+      <selection pane="bottomLeft" activeCell="J361" sqref="J361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -38894,26 +38910,49 @@
       <c r="G359" s="46"/>
       <c r="H359" s="46"/>
       <c r="I359" s="46"/>
+      <c r="J359" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B360" s="44"/>
+      <c r="A360" t="s">
+        <v>597</v>
+      </c>
+      <c r="B360" s="44" t="s">
+        <v>276</v>
+      </c>
       <c r="C360" s="45"/>
       <c r="D360" s="45"/>
       <c r="E360" s="45"/>
-      <c r="F360" s="46"/>
+      <c r="F360" s="46" t="s">
+        <v>598</v>
+      </c>
       <c r="G360" s="46"/>
       <c r="H360" s="46"/>
       <c r="I360" s="46"/>
+      <c r="J360" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B361" s="44"/>
+      <c r="A361" t="s">
+        <v>599</v>
+      </c>
+      <c r="B361" s="44" t="s">
+        <v>276</v>
+      </c>
       <c r="C361" s="45"/>
       <c r="D361" s="45"/>
       <c r="E361" s="45"/>
-      <c r="F361" s="46"/>
+      <c r="F361" s="46" t="s">
+        <v>600</v>
+      </c>
       <c r="G361" s="46"/>
       <c r="H361" s="46"/>
       <c r="I361" s="46"/>
+      <c r="J361" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B362" s="44"/>

--- a/武器调整计划.xlsx
+++ b/武器调整计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\How to be a tactical doll\Github 码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE684EB4-B992-48AF-BF66-D5F89C5AAD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D8E716-6C54-4320-BAC6-A56437BD66A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="608">
   <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2410,6 +2410,34 @@
   </si>
   <si>
     <t>榴弹模式改成栓动，装填时间2.53→2.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M200，T91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移去消音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹容调回30，本体后坐力恢复系数1.5→1.6，mod3为1.5→1.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMP40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm上调到700，致死1.55→1.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本体rpm600→700，mod3rpm600→750，视距1.3，致死2.0→1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到行刑时刻的cd1.2→0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2951,7 +2979,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F361" sqref="F361:I361"/>
+      <selection pane="bottomLeft" activeCell="F366" sqref="F366:I366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -38955,51 +38983,98 @@
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B362" s="44"/>
+      <c r="A362" t="s">
+        <v>601</v>
+      </c>
+      <c r="B362" s="44" t="s">
+        <v>276</v>
+      </c>
       <c r="C362" s="45"/>
       <c r="D362" s="45"/>
       <c r="E362" s="45"/>
-      <c r="F362" s="46"/>
+      <c r="F362" s="46" t="s">
+        <v>602</v>
+      </c>
       <c r="G362" s="46"/>
       <c r="H362" s="46"/>
       <c r="I362" s="46"/>
+      <c r="J362" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B363" s="44"/>
+      <c r="A363" t="s">
+        <v>267</v>
+      </c>
+      <c r="B363" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C363" s="45"/>
       <c r="D363" s="45"/>
       <c r="E363" s="45"/>
-      <c r="F363" s="46"/>
+      <c r="F363" s="46" t="s">
+        <v>606</v>
+      </c>
       <c r="G363" s="46"/>
       <c r="H363" s="46"/>
       <c r="I363" s="46"/>
+      <c r="J363" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B364" s="44"/>
+      <c r="A364" t="s">
+        <v>116</v>
+      </c>
+      <c r="B364" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C364" s="45"/>
       <c r="D364" s="45"/>
       <c r="E364" s="45"/>
-      <c r="F364" s="46"/>
+      <c r="F364" s="46" t="s">
+        <v>603</v>
+      </c>
       <c r="G364" s="46"/>
       <c r="H364" s="46"/>
       <c r="I364" s="46"/>
+      <c r="J364" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B365" s="44"/>
+      <c r="A365" t="s">
+        <v>604</v>
+      </c>
+      <c r="B365" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C365" s="45"/>
       <c r="D365" s="45"/>
       <c r="E365" s="45"/>
-      <c r="F365" s="46"/>
+      <c r="F365" s="46" t="s">
+        <v>605</v>
+      </c>
       <c r="G365" s="46"/>
       <c r="H365" s="46"/>
       <c r="I365" s="46"/>
+      <c r="J365" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B366" s="44"/>
+      <c r="A366" t="s">
+        <v>542</v>
+      </c>
+      <c r="B366" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C366" s="45"/>
       <c r="D366" s="45"/>
       <c r="E366" s="45"/>
-      <c r="F366" s="46"/>
+      <c r="F366" s="46" t="s">
+        <v>607</v>
+      </c>
       <c r="G366" s="46"/>
       <c r="H366" s="46"/>
       <c r="I366" s="46"/>

--- a/武器调整计划.xlsx
+++ b/武器调整计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\How to be a tactical doll\Github 码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7D02E2-330C-4470-BECC-453383F4FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998AB82F-BDDE-4401-BE35-9A673F4949BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="616">
   <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2462,6 +2462,14 @@
   </si>
   <si>
     <t>双持半自动改为0.8s，双持全自动改为1.0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单持武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半自动0.5s，全自动0.75s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3003,7 +3011,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A370" sqref="A370"/>
+      <selection pane="bottomLeft" activeCell="A371" sqref="A371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -39167,14 +39175,24 @@
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B370" s="44"/>
+      <c r="A370" t="s">
+        <v>614</v>
+      </c>
+      <c r="B370" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C370" s="45"/>
       <c r="D370" s="45"/>
       <c r="E370" s="45"/>
-      <c r="F370" s="46"/>
+      <c r="F370" s="46" t="s">
+        <v>615</v>
+      </c>
       <c r="G370" s="46"/>
       <c r="H370" s="46"/>
       <c r="I370" s="46"/>
+      <c r="J370" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B371" s="44"/>

--- a/武器调整计划.xlsx
+++ b/武器调整计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\How to be a tactical doll\Github 码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D97AA-CDE2-408A-9A19-2F2D362AC831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18C9FD0-3B32-4462-A3BF-5680CEF2A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="624">
   <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2461,10 +2461,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双持半自动改为0.8s，双持全自动改为1.0s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单持武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2478,6 +2474,34 @@
   </si>
   <si>
     <t>FG42和M1918为0.8s，dp28和rpk203为1.2s，kord2.4s，剩余100及以下1.6s，150及以下2.4s，200及以上2.8s，lwmmg及mod3为4s，mg4mod3为5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XM8mod3，STG44mod3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XM8mod3后坐力改为m4a1mod3同款，STG44mod3后坐力增长0.5→0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除FAL为0.9s外，其他非三改ar装填统一加强1.2s，火力技能加强为1.5s；AN94mod3和G11mod3本体1.5s，技能1.8s；AN94mod3价格下调为270rp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm和弹速重符合现实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双持半自动改为0.8s，双持全自动改为1.0s（炼金未动）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3019,7 +3043,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F371" sqref="F371:I371"/>
+      <selection pane="bottomLeft" activeCell="F369" sqref="F369:I369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -39173,7 +39197,7 @@
       <c r="D369" s="45"/>
       <c r="E369" s="45"/>
       <c r="F369" s="46" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="G369" s="46"/>
       <c r="H369" s="46"/>
@@ -39184,7 +39208,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B370" s="44" t="s">
         <v>118</v>
@@ -39193,7 +39217,7 @@
       <c r="D370" s="45"/>
       <c r="E370" s="45"/>
       <c r="F370" s="46" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G370" s="46"/>
       <c r="H370" s="46"/>
@@ -39204,7 +39228,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B371" s="44" t="s">
         <v>118</v>
@@ -39213,7 +39237,7 @@
       <c r="D371" s="45"/>
       <c r="E371" s="45"/>
       <c r="F371" s="46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G371" s="46"/>
       <c r="H371" s="46"/>
@@ -39223,31 +39247,52 @@
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B372" s="44"/>
+      <c r="A372" t="s">
+        <v>617</v>
+      </c>
+      <c r="B372" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C372" s="45"/>
       <c r="D372" s="45"/>
       <c r="E372" s="45"/>
-      <c r="F372" s="46"/>
+      <c r="F372" s="46" t="s">
+        <v>618</v>
+      </c>
       <c r="G372" s="46"/>
       <c r="H372" s="46"/>
       <c r="I372" s="46"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B373" s="44"/>
+      <c r="A373" t="s">
+        <v>619</v>
+      </c>
+      <c r="B373" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C373" s="45"/>
       <c r="D373" s="45"/>
       <c r="E373" s="45"/>
-      <c r="F373" s="46"/>
+      <c r="F373" s="46" t="s">
+        <v>620</v>
+      </c>
       <c r="G373" s="46"/>
       <c r="H373" s="46"/>
       <c r="I373" s="46"/>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B374" s="44"/>
+      <c r="A374" t="s">
+        <v>621</v>
+      </c>
+      <c r="B374" s="44" t="s">
+        <v>276</v>
+      </c>
       <c r="C374" s="45"/>
       <c r="D374" s="45"/>
       <c r="E374" s="45"/>
-      <c r="F374" s="46"/>
+      <c r="F374" s="46" t="s">
+        <v>622</v>
+      </c>
       <c r="G374" s="46"/>
       <c r="H374" s="46"/>
       <c r="I374" s="46"/>

--- a/武器调整计划.xlsx
+++ b/武器调整计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\How to be a tactical doll\Github 码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18C9FD0-3B32-4462-A3BF-5680CEF2A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3551E-0B1A-401C-8AFF-F7B504EBAAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="628">
   <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2345,10 +2345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新武器XM3，M1897加入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RPK203</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2502,6 +2498,26 @@
   </si>
   <si>
     <t>双持半自动改为0.8s，双持全自动改为1.0s（炼金未动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WA2000和SVCh 0.9s，剩余hit类半自动10发及以下给1.2s，20发给1.8s，M99给1.5s，M82A1给2.1s，栓动hit弹容10的给1.5s，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹容10以下5及以上给1.2，弹容5以下给0.8，反器材大栓不动（2.1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装填改为5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新武器XM3，M1897，M21加入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3043,7 +3059,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F369" sqref="F369:I369"/>
+      <selection pane="bottomLeft" activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -38832,7 +38848,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>584</v>
+        <v>627</v>
       </c>
       <c r="B351" s="44"/>
       <c r="C351" s="45"/>
@@ -38888,7 +38904,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B354" s="44" t="s">
         <v>118</v>
@@ -38897,7 +38913,7 @@
       <c r="D354" s="45"/>
       <c r="E354" s="45"/>
       <c r="F354" s="46" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G354" s="46"/>
       <c r="H354" s="46"/>
@@ -38908,7 +38924,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B355" s="44" t="s">
         <v>118</v>
@@ -38917,7 +38933,7 @@
       <c r="D355" s="45"/>
       <c r="E355" s="45"/>
       <c r="F355" s="46" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G355" s="46"/>
       <c r="H355" s="46"/>
@@ -38928,7 +38944,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B356" s="44" t="s">
         <v>130</v>
@@ -38937,7 +38953,7 @@
       <c r="D356" s="45"/>
       <c r="E356" s="45"/>
       <c r="F356" s="46" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G356" s="46"/>
       <c r="H356" s="46"/>
@@ -38948,7 +38964,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B357" s="44" t="s">
         <v>118</v>
@@ -38957,7 +38973,7 @@
       <c r="D357" s="45"/>
       <c r="E357" s="45"/>
       <c r="F357" s="46" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G357" s="46"/>
       <c r="H357" s="46"/>
@@ -38968,7 +38984,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B358" s="44" t="s">
         <v>118</v>
@@ -38977,7 +38993,7 @@
       <c r="D358" s="45"/>
       <c r="E358" s="45"/>
       <c r="F358" s="46" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G358" s="46"/>
       <c r="H358" s="46"/>
@@ -38988,7 +39004,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B359" s="44" t="s">
         <v>118</v>
@@ -38997,7 +39013,7 @@
       <c r="D359" s="45"/>
       <c r="E359" s="45"/>
       <c r="F359" s="46" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G359" s="46"/>
       <c r="H359" s="46"/>
@@ -39008,7 +39024,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B360" s="44" t="s">
         <v>276</v>
@@ -39017,7 +39033,7 @@
       <c r="D360" s="45"/>
       <c r="E360" s="45"/>
       <c r="F360" s="46" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G360" s="46"/>
       <c r="H360" s="46"/>
@@ -39028,7 +39044,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B361" s="44" t="s">
         <v>276</v>
@@ -39037,7 +39053,7 @@
       <c r="D361" s="45"/>
       <c r="E361" s="45"/>
       <c r="F361" s="46" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G361" s="46"/>
       <c r="H361" s="46"/>
@@ -39048,7 +39064,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B362" s="44" t="s">
         <v>276</v>
@@ -39057,7 +39073,7 @@
       <c r="D362" s="45"/>
       <c r="E362" s="45"/>
       <c r="F362" s="46" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G362" s="46"/>
       <c r="H362" s="46"/>
@@ -39077,7 +39093,7 @@
       <c r="D363" s="45"/>
       <c r="E363" s="45"/>
       <c r="F363" s="46" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G363" s="46"/>
       <c r="H363" s="46"/>
@@ -39097,7 +39113,7 @@
       <c r="D364" s="45"/>
       <c r="E364" s="45"/>
       <c r="F364" s="46" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G364" s="46"/>
       <c r="H364" s="46"/>
@@ -39108,7 +39124,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B365" s="44" t="s">
         <v>118</v>
@@ -39117,7 +39133,7 @@
       <c r="D365" s="45"/>
       <c r="E365" s="45"/>
       <c r="F365" s="46" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G365" s="46"/>
       <c r="H365" s="46"/>
@@ -39137,7 +39153,7 @@
       <c r="D366" s="45"/>
       <c r="E366" s="45"/>
       <c r="F366" s="46" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G366" s="46"/>
       <c r="H366" s="46"/>
@@ -39148,7 +39164,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B367" s="44" t="s">
         <v>118</v>
@@ -39157,7 +39173,7 @@
       <c r="D367" s="45"/>
       <c r="E367" s="45"/>
       <c r="F367" s="46" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G367" s="46"/>
       <c r="H367" s="46"/>
@@ -39168,7 +39184,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B368" s="44" t="s">
         <v>118</v>
@@ -39177,7 +39193,7 @@
       <c r="D368" s="45"/>
       <c r="E368" s="45"/>
       <c r="F368" s="46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G368" s="46"/>
       <c r="H368" s="46"/>
@@ -39188,7 +39204,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B369" s="44" t="s">
         <v>118</v>
@@ -39197,7 +39213,7 @@
       <c r="D369" s="45"/>
       <c r="E369" s="45"/>
       <c r="F369" s="46" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G369" s="46"/>
       <c r="H369" s="46"/>
@@ -39208,7 +39224,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B370" s="44" t="s">
         <v>118</v>
@@ -39217,7 +39233,7 @@
       <c r="D370" s="45"/>
       <c r="E370" s="45"/>
       <c r="F370" s="46" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G370" s="46"/>
       <c r="H370" s="46"/>
@@ -39228,7 +39244,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B371" s="44" t="s">
         <v>118</v>
@@ -39237,7 +39253,7 @@
       <c r="D371" s="45"/>
       <c r="E371" s="45"/>
       <c r="F371" s="46" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G371" s="46"/>
       <c r="H371" s="46"/>
@@ -39248,7 +39264,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B372" s="44" t="s">
         <v>118</v>
@@ -39257,15 +39273,18 @@
       <c r="D372" s="45"/>
       <c r="E372" s="45"/>
       <c r="F372" s="46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G372" s="46"/>
       <c r="H372" s="46"/>
       <c r="I372" s="46"/>
+      <c r="J372" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B373" s="44" t="s">
         <v>118</v>
@@ -39274,15 +39293,18 @@
       <c r="D373" s="45"/>
       <c r="E373" s="45"/>
       <c r="F373" s="46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G373" s="46"/>
       <c r="H373" s="46"/>
       <c r="I373" s="46"/>
+      <c r="J373" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B374" s="44" t="s">
         <v>276</v>
@@ -39291,41 +39313,66 @@
       <c r="D374" s="45"/>
       <c r="E374" s="45"/>
       <c r="F374" s="46" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G374" s="46"/>
       <c r="H374" s="46"/>
       <c r="I374" s="46"/>
+      <c r="J374" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B375" s="44"/>
+      <c r="A375" t="s">
+        <v>623</v>
+      </c>
+      <c r="B375" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C375" s="45"/>
       <c r="D375" s="45"/>
       <c r="E375" s="45"/>
-      <c r="F375" s="46"/>
+      <c r="F375" s="46" t="s">
+        <v>624</v>
+      </c>
       <c r="G375" s="46"/>
       <c r="H375" s="46"/>
       <c r="I375" s="46"/>
+      <c r="J375" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B376" s="44"/>
       <c r="C376" s="45"/>
       <c r="D376" s="45"/>
       <c r="E376" s="45"/>
-      <c r="F376" s="46"/>
+      <c r="F376" s="46" t="s">
+        <v>625</v>
+      </c>
       <c r="G376" s="46"/>
       <c r="H376" s="46"/>
       <c r="I376" s="46"/>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B377" s="44"/>
+      <c r="A377" t="s">
+        <v>191</v>
+      </c>
+      <c r="B377" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="C377" s="45"/>
       <c r="D377" s="45"/>
       <c r="E377" s="45"/>
-      <c r="F377" s="46"/>
+      <c r="F377" s="46" t="s">
+        <v>626</v>
+      </c>
       <c r="G377" s="46"/>
       <c r="H377" s="46"/>
       <c r="I377" s="46"/>
+      <c r="J377" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B378" s="44"/>

--- a/武器调整计划.xlsx
+++ b/武器调整计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\How to be a tactical doll\Github 码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDDCD86-54FB-4118-932B-6B53A7205594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6679F951-D91A-4F59-A1F4-C07DA3395CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="635">
   <si>
     <t>操作人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2530,6 +2530,22 @@
   </si>
   <si>
     <t>均加入了0.5s的切换动作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M1897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移去了友伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内格夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致死梯度改为1.81→1.91→2.01→2.11，本体换弹为4s，技能换弹5s，切换模式0.5scd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3070,8 +3086,8 @@
   <dimension ref="A1:XFD543"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J381" sqref="J381"/>
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J383" sqref="J383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -39440,24 +39456,44 @@
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B381" s="44"/>
+      <c r="A381" t="s">
+        <v>631</v>
+      </c>
+      <c r="B381" s="44" t="s">
+        <v>276</v>
+      </c>
       <c r="C381" s="45"/>
       <c r="D381" s="45"/>
       <c r="E381" s="45"/>
-      <c r="F381" s="46"/>
+      <c r="F381" s="46" t="s">
+        <v>632</v>
+      </c>
       <c r="G381" s="46"/>
       <c r="H381" s="46"/>
       <c r="I381" s="46"/>
+      <c r="J381" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B382" s="44"/>
+      <c r="A382" t="s">
+        <v>633</v>
+      </c>
+      <c r="B382" s="44" t="s">
+        <v>130</v>
+      </c>
       <c r="C382" s="45"/>
       <c r="D382" s="45"/>
       <c r="E382" s="45"/>
-      <c r="F382" s="46"/>
+      <c r="F382" s="46" t="s">
+        <v>634</v>
+      </c>
       <c r="G382" s="46"/>
       <c r="H382" s="46"/>
       <c r="I382" s="46"/>
+      <c r="J382" s="7" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B383" s="44"/>
